--- a/biology/Botanique/Sinar_Mas/Sinar_Mas.xlsx
+++ b/biology/Botanique/Sinar_Mas/Sinar_Mas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sinar Mas est un conglomérat indonésien possédant notamment Asia Pulp &amp; Paper et PT Smart. Asia Pulp &amp; Paper, l'une de ses branches, est célèbre pour le rythme de la déforestation qu'elle impulse en Indonésie. 
@@ -512,13 +524,50 @@
           <t>Atteinte à l'environnement et aux droits de l'homme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sinar Mas est devenue selon le Sydney Herald l'archétype de la société qui inflige tous les dommages imaginables à l'environnement[1].
-En 2018, le vice-président de Sinar Mas Agro a été condamné pour corruption au Kalimantan par la Commission de lutte contre la corruption (Corruption Eradication Commission) de Jakarta[2].
-Déforestation  en Afrique
-En 2018, Sinar Mas a étendu son pouvoir de nuisance en réalisant des opérations de déforestation au Liberia par l'intermédiaire de sa filiale locale GVL (Golden Veroleum Liberia)[3].
-GLV est aussi mise en cause en 2018 pour la violation des droits de l'homme au Libéria[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sinar Mas est devenue selon le Sydney Herald l'archétype de la société qui inflige tous les dommages imaginables à l'environnement.
+En 2018, le vice-président de Sinar Mas Agro a été condamné pour corruption au Kalimantan par la Commission de lutte contre la corruption (Corruption Eradication Commission) de Jakarta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sinar_Mas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sinar_Mas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Atteinte à l'environnement et aux droits de l'homme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Déforestation  en Afrique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, Sinar Mas a étendu son pouvoir de nuisance en réalisant des opérations de déforestation au Liberia par l'intermédiaire de sa filiale locale GVL (Golden Veroleum Liberia).
+GLV est aussi mise en cause en 2018 pour la violation des droits de l'homme au Libéria.
 </t>
         </is>
       </c>
